--- a/TA buku/Results/Sentiwordnet/hasil_SERVICE.xlsx
+++ b/TA buku/Results/Sentiwordnet/hasil_SERVICE.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="278">
   <si>
     <t>id</t>
   </si>
@@ -736,6 +736,9 @@
     <t>intimate</t>
   </si>
   <si>
+    <t>-|-</t>
+  </si>
+  <si>
     <t>nonsense</t>
   </si>
   <si>
@@ -748,7 +751,10 @@
     <t>professional</t>
   </si>
   <si>
-    <t>enjoying</t>
+    <t>sure|sure</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
   <si>
     <t>proper</t>
@@ -790,25 +796,22 @@
     <t>terrible</t>
   </si>
   <si>
-    <t>concerned</t>
-  </si>
-  <si>
-    <t>complained</t>
+    <t>concerned|concerned</t>
+  </si>
+  <si>
+    <t>more</t>
   </si>
   <si>
     <t>worst|worst</t>
   </si>
   <si>
-    <t>smile</t>
+    <t>much|much|much|much</t>
   </si>
   <si>
     <t>last|last</t>
   </si>
   <si>
-    <t>promptly</t>
-  </si>
-  <si>
-    <t>okay</t>
+    <t>okay|okay</t>
   </si>
   <si>
     <t>attentive|attentive</t>
@@ -1242,10 +1245,10 @@
         <v>210</v>
       </c>
       <c r="E2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -1265,10 +1268,10 @@
         <v>211</v>
       </c>
       <c r="E3" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="F3" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="G3">
         <v>-0.875</v>
@@ -1288,10 +1291,10 @@
         <v>210</v>
       </c>
       <c r="E4" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F4" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -1311,10 +1314,10 @@
         <v>212</v>
       </c>
       <c r="E5" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F5" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="G5">
         <v>0.25</v>
@@ -1334,10 +1337,10 @@
         <v>213</v>
       </c>
       <c r="E6" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F6" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="G6">
         <v>0.875</v>
@@ -1357,10 +1360,10 @@
         <v>214</v>
       </c>
       <c r="E7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -1380,10 +1383,10 @@
         <v>215</v>
       </c>
       <c r="E8" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F8" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="G8">
         <v>0.5</v>
@@ -1403,10 +1406,10 @@
         <v>216</v>
       </c>
       <c r="E9" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F9" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -1426,10 +1429,10 @@
         <v>217</v>
       </c>
       <c r="E10" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="F10" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="G10">
         <v>-0.125</v>
@@ -1449,10 +1452,10 @@
         <v>218</v>
       </c>
       <c r="E11" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="F11" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="G11">
         <v>0.375</v>
@@ -1472,10 +1475,10 @@
         <v>219</v>
       </c>
       <c r="E12" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F12" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="G12">
         <v>0.25</v>
@@ -1495,10 +1498,10 @@
         <v>220</v>
       </c>
       <c r="E13" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="F13" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="G13">
         <v>0.375</v>
@@ -1518,10 +1521,10 @@
         <v>221</v>
       </c>
       <c r="E14" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="F14" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="G14">
         <v>-0.625</v>
@@ -1541,10 +1544,10 @@
         <v>222</v>
       </c>
       <c r="E15" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F15" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1564,10 +1567,10 @@
         <v>223</v>
       </c>
       <c r="E16" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="F16" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="G16">
         <v>0.875</v>
@@ -1587,10 +1590,10 @@
         <v>216</v>
       </c>
       <c r="E17" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="F17" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1610,10 +1613,10 @@
         <v>224</v>
       </c>
       <c r="E18" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="F18" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1633,10 +1636,10 @@
         <v>225</v>
       </c>
       <c r="E19" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F19" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1656,10 +1659,10 @@
         <v>226</v>
       </c>
       <c r="E20" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F20" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1679,10 +1682,10 @@
         <v>210</v>
       </c>
       <c r="E21" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F21" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1702,10 +1705,10 @@
         <v>227</v>
       </c>
       <c r="E22" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F22" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="G22">
         <v>0.25</v>
@@ -1725,10 +1728,10 @@
         <v>228</v>
       </c>
       <c r="E23" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="F23" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1748,10 +1751,10 @@
         <v>229</v>
       </c>
       <c r="E24" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="F24" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1771,10 +1774,10 @@
         <v>230</v>
       </c>
       <c r="E25" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F25" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1794,10 +1797,10 @@
         <v>231</v>
       </c>
       <c r="E26" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F26" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -1817,10 +1820,10 @@
         <v>213</v>
       </c>
       <c r="E27" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="F27" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="G27">
         <v>0.875</v>
@@ -1840,10 +1843,10 @@
         <v>232</v>
       </c>
       <c r="E28" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F28" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="G28">
         <v>0</v>
@@ -1863,10 +1866,10 @@
         <v>233</v>
       </c>
       <c r="E29" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F29" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -1886,10 +1889,10 @@
         <v>225</v>
       </c>
       <c r="E30" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F30" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="G30">
         <v>1</v>
@@ -1909,10 +1912,10 @@
         <v>234</v>
       </c>
       <c r="E31" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="F31" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="G31">
         <v>-0.625</v>
@@ -1932,10 +1935,10 @@
         <v>231</v>
       </c>
       <c r="E32" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F32" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="G32">
         <v>0</v>
@@ -1955,10 +1958,10 @@
         <v>235</v>
       </c>
       <c r="E33" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F33" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -1978,10 +1981,10 @@
         <v>210</v>
       </c>
       <c r="E34" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F34" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="G34">
         <v>0</v>
@@ -2001,10 +2004,10 @@
         <v>236</v>
       </c>
       <c r="E35" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F35" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="G35">
         <v>0.5</v>
@@ -2024,10 +2027,10 @@
         <v>237</v>
       </c>
       <c r="E36" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F36" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="G36">
         <v>0</v>
@@ -2047,10 +2050,10 @@
         <v>210</v>
       </c>
       <c r="E37" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F37" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="G37">
         <v>0</v>
@@ -2070,10 +2073,10 @@
         <v>238</v>
       </c>
       <c r="E38" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F38" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="G38">
         <v>-0.375</v>
@@ -2093,10 +2096,10 @@
         <v>239</v>
       </c>
       <c r="E39" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F39" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="G39">
         <v>0.75</v>
@@ -2116,10 +2119,10 @@
         <v>219</v>
       </c>
       <c r="E40" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F40" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="G40">
         <v>0.25</v>
@@ -2135,11 +2138,14 @@
       <c r="C41" t="s">
         <v>147</v>
       </c>
+      <c r="D41" t="s">
+        <v>240</v>
+      </c>
       <c r="E41" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="F41" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="G41">
         <v>0</v>
@@ -2159,10 +2165,10 @@
         <v>219</v>
       </c>
       <c r="E42" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F42" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="G42">
         <v>0.25</v>
@@ -2182,10 +2188,10 @@
         <v>237</v>
       </c>
       <c r="E43" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F43" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="G43">
         <v>0</v>
@@ -2202,13 +2208,13 @@
         <v>150</v>
       </c>
       <c r="D44" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E44" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F44" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="G44">
         <v>0.375</v>
@@ -2225,13 +2231,13 @@
         <v>151</v>
       </c>
       <c r="D45" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E45" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F45" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="G45">
         <v>0.75</v>
@@ -2248,13 +2254,13 @@
         <v>152</v>
       </c>
       <c r="D46" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E46" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F46" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="G46">
         <v>0.25</v>
@@ -2271,13 +2277,13 @@
         <v>153</v>
       </c>
       <c r="D47" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E47" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F47" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="G47">
         <v>0</v>
@@ -2294,13 +2300,13 @@
         <v>154</v>
       </c>
       <c r="D48" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E48" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F48" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="G48">
         <v>0.75</v>
@@ -2317,16 +2323,16 @@
         <v>155</v>
       </c>
       <c r="D49" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E49" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F49" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="G49">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -2343,10 +2349,10 @@
         <v>221</v>
       </c>
       <c r="E50" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="F50" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="G50">
         <v>-0.625</v>
@@ -2362,11 +2368,14 @@
       <c r="C51" t="s">
         <v>157</v>
       </c>
+      <c r="D51" t="s">
+        <v>246</v>
+      </c>
       <c r="E51" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="F51" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="G51">
         <v>0</v>
@@ -2383,13 +2392,13 @@
         <v>158</v>
       </c>
       <c r="D52" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="E52" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="F52" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="G52">
         <v>-0.75</v>
@@ -2406,13 +2415,13 @@
         <v>159</v>
       </c>
       <c r="D53" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="E53" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F53" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="G53">
         <v>1.375</v>
@@ -2432,10 +2441,10 @@
         <v>237</v>
       </c>
       <c r="E54" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F54" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="G54">
         <v>0</v>
@@ -2452,13 +2461,13 @@
         <v>161</v>
       </c>
       <c r="D55" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E55" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F55" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="G55">
         <v>-0.625</v>
@@ -2478,10 +2487,10 @@
         <v>230</v>
       </c>
       <c r="E56" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F56" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="G56">
         <v>0</v>
@@ -2498,13 +2507,13 @@
         <v>163</v>
       </c>
       <c r="D57" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="E57" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F57" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="G57">
         <v>-0.625</v>
@@ -2524,10 +2533,10 @@
         <v>225</v>
       </c>
       <c r="E58" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F58" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="G58">
         <v>1</v>
@@ -2544,13 +2553,13 @@
         <v>165</v>
       </c>
       <c r="D59" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="E59" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F59" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="G59">
         <v>0</v>
@@ -2567,13 +2576,13 @@
         <v>166</v>
       </c>
       <c r="D60" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="E60" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="F60" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="G60">
         <v>0</v>
@@ -2590,13 +2599,13 @@
         <v>167</v>
       </c>
       <c r="D61" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="E61" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F61" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="G61">
         <v>0</v>
@@ -2616,10 +2625,10 @@
         <v>210</v>
       </c>
       <c r="E62" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="F62" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="G62">
         <v>0</v>
@@ -2639,10 +2648,10 @@
         <v>225</v>
       </c>
       <c r="E63" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F63" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="G63">
         <v>1</v>
@@ -2662,10 +2671,10 @@
         <v>210</v>
       </c>
       <c r="E64" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F64" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="G64">
         <v>0</v>
@@ -2685,10 +2694,10 @@
         <v>210</v>
       </c>
       <c r="E65" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F65" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="G65">
         <v>0</v>
@@ -2708,10 +2717,10 @@
         <v>221</v>
       </c>
       <c r="E66" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="F66" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="G66">
         <v>-0.625</v>
@@ -2728,13 +2737,13 @@
         <v>173</v>
       </c>
       <c r="D67" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="E67" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="F67" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="G67">
         <v>-1.25</v>
@@ -2750,11 +2759,14 @@
       <c r="C68" t="s">
         <v>174</v>
       </c>
+      <c r="D68" t="s">
+        <v>240</v>
+      </c>
       <c r="E68" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="F68" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="G68">
         <v>0</v>
@@ -2771,13 +2783,13 @@
         <v>175</v>
       </c>
       <c r="D69" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="E69" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="F69" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="G69">
         <v>0</v>
@@ -2794,13 +2806,13 @@
         <v>176</v>
       </c>
       <c r="D70" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="E70" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="F70" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="G70">
         <v>0</v>
@@ -2817,13 +2829,13 @@
         <v>177</v>
       </c>
       <c r="D71" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="E71" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F71" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="G71">
         <v>0.25</v>
@@ -2843,10 +2855,10 @@
         <v>234</v>
       </c>
       <c r="E72" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="F72" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="G72">
         <v>-0.625</v>
@@ -2863,13 +2875,13 @@
         <v>179</v>
       </c>
       <c r="D73" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E73" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F73" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="G73">
         <v>0.875</v>
@@ -2889,10 +2901,10 @@
         <v>227</v>
       </c>
       <c r="E74" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F74" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="G74">
         <v>0.25</v>
@@ -2909,13 +2921,13 @@
         <v>181</v>
       </c>
       <c r="D75" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E75" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F75" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="G75">
         <v>0.75</v>
@@ -2932,13 +2944,13 @@
         <v>182</v>
       </c>
       <c r="D76" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="E76" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F76" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="G76">
         <v>0.25</v>
@@ -2955,13 +2967,13 @@
         <v>183</v>
       </c>
       <c r="D77" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="E77" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="F77" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="G77">
         <v>-0.625</v>
@@ -2978,16 +2990,16 @@
         <v>184</v>
       </c>
       <c r="D78" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="E78" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="F78" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="G78">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -3001,13 +3013,13 @@
         <v>185</v>
       </c>
       <c r="D79" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="E79" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="F79" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="G79">
         <v>0</v>
@@ -3024,13 +3036,13 @@
         <v>186</v>
       </c>
       <c r="D80" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E80" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="F80" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="G80">
         <v>0.75</v>
@@ -3047,13 +3059,13 @@
         <v>187</v>
       </c>
       <c r="D81" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E81" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="F81" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="G81">
         <v>-1.5</v>
@@ -3070,13 +3082,13 @@
         <v>188</v>
       </c>
       <c r="D82" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="E82" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="F82" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="G82">
         <v>0</v>
@@ -3092,11 +3104,14 @@
       <c r="C83" t="s">
         <v>189</v>
       </c>
+      <c r="D83" t="s">
+        <v>240</v>
+      </c>
       <c r="E83" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="F83" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="G83">
         <v>0</v>
@@ -3113,13 +3128,13 @@
         <v>190</v>
       </c>
       <c r="D84" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="E84" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F84" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="G84">
         <v>-0.5</v>
@@ -3139,10 +3154,10 @@
         <v>227</v>
       </c>
       <c r="E85" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F85" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="G85">
         <v>0.25</v>
@@ -3159,13 +3174,13 @@
         <v>192</v>
       </c>
       <c r="D86" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="E86" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="F86" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="G86">
         <v>0</v>
@@ -3182,13 +3197,13 @@
         <v>193</v>
       </c>
       <c r="D87" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E87" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F87" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="G87">
         <v>0.75</v>
@@ -3208,10 +3223,10 @@
         <v>225</v>
       </c>
       <c r="E88" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F88" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="G88">
         <v>1</v>
@@ -3228,16 +3243,16 @@
         <v>195</v>
       </c>
       <c r="D89" t="s">
-        <v>263</v>
+        <v>213</v>
       </c>
       <c r="E89" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F89" t="s">
         <v>276</v>
       </c>
       <c r="G89">
-        <v>0</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -3251,16 +3266,16 @@
         <v>196</v>
       </c>
       <c r="D90" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E90" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="F90" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="G90">
-        <v>0.375</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -3274,13 +3289,13 @@
         <v>197</v>
       </c>
       <c r="D91" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E91" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F91" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="G91">
         <v>0.5</v>
@@ -3297,13 +3312,13 @@
         <v>198</v>
       </c>
       <c r="D92" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E92" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="F92" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="G92">
         <v>-0.625</v>
@@ -3320,13 +3335,13 @@
         <v>199</v>
       </c>
       <c r="D93" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E93" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="F93" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="G93">
         <v>0.5</v>
@@ -3342,11 +3357,14 @@
       <c r="C94" t="s">
         <v>200</v>
       </c>
+      <c r="D94" t="s">
+        <v>246</v>
+      </c>
       <c r="E94" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="F94" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="G94">
         <v>0</v>
@@ -3363,13 +3381,13 @@
         <v>201</v>
       </c>
       <c r="D95" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E95" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="F95" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="G95">
         <v>-0.875</v>
@@ -3386,13 +3404,13 @@
         <v>202</v>
       </c>
       <c r="D96" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E96" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="F96" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="G96">
         <v>0</v>
@@ -3409,13 +3427,13 @@
         <v>203</v>
       </c>
       <c r="D97" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E97" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F97" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="G97">
         <v>0.75</v>
@@ -3432,13 +3450,13 @@
         <v>204</v>
       </c>
       <c r="D98" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E98" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F98" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="G98">
         <v>0.75</v>
@@ -3455,13 +3473,13 @@
         <v>205</v>
       </c>
       <c r="D99" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="E99" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F99" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="G99">
         <v>0.25</v>
@@ -3478,13 +3496,13 @@
         <v>206</v>
       </c>
       <c r="D100" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="E100" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F100" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="G100">
         <v>1.25</v>
@@ -3501,13 +3519,13 @@
         <v>207</v>
       </c>
       <c r="D101" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="E101" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F101" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="G101">
         <v>0</v>
@@ -3524,13 +3542,13 @@
         <v>208</v>
       </c>
       <c r="D102" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="E102" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="F102" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="G102">
         <v>-0.125</v>
@@ -3547,13 +3565,13 @@
         <v>209</v>
       </c>
       <c r="D103" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="E103" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F103" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="G103">
         <v>0</v>
